--- a/Data/Processing/2024-02-02/CONCOR.xlsx
+++ b/Data/Processing/2024-02-02/CONCOR.xlsx
@@ -5872,7 +5872,7 @@
         <v>660.9400000000001</v>
       </c>
       <c r="E107">
-        <v>670.64</v>
+        <v>670.65</v>
       </c>
       <c r="F107">
         <v>665.1</v>
@@ -5902,7 +5902,7 @@
         <v>2.24</v>
       </c>
       <c r="O107">
-        <v>652.0527272727272</v>
+        <v>652.0529545454546</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5925,7 +5925,7 @@
         <v>676.49</v>
       </c>
       <c r="F108">
-        <v>670.64</v>
+        <v>670.65</v>
       </c>
       <c r="G108">
         <v>828232</v>
@@ -5943,7 +5943,7 @@
         <v>-0.89</v>
       </c>
       <c r="L108">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="M108">
         <v>-0.13</v>
@@ -5952,7 +5952,7 @@
         <v>1.77</v>
       </c>
       <c r="O108">
-        <v>653.0318181818182</v>
+        <v>653.0320454545455</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>1.73</v>
       </c>
       <c r="O109">
-        <v>653.8486363636364</v>
+        <v>653.8488636363636</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>683.27</v>
       </c>
       <c r="D110">
-        <v>670.65</v>
+        <v>670.64</v>
       </c>
       <c r="E110">
         <v>682.08</v>
@@ -6052,7 +6052,7 @@
         <v>1.88</v>
       </c>
       <c r="O110">
-        <v>654.9861363636363</v>
+        <v>654.9863636363636</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>4.54</v>
       </c>
       <c r="O111">
-        <v>655.8379545454545</v>
+        <v>655.8381818181817</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>2.68</v>
       </c>
       <c r="O112">
-        <v>656.6897727272727</v>
+        <v>656.6899999999999</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>2.9</v>
       </c>
       <c r="O113">
-        <v>657.738409090909</v>
+        <v>657.7386363636364</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>3.25</v>
       </c>
       <c r="O114">
-        <v>658.9604545454546</v>
+        <v>658.9606818181818</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>2.02</v>
       </c>
       <c r="O115">
-        <v>660.0531818181818</v>
+        <v>660.0534090909091</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>3.17</v>
       </c>
       <c r="O116">
-        <v>660.8554545454546</v>
+        <v>660.8556818181818</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -6402,7 +6402,7 @@
         <v>1.88</v>
       </c>
       <c r="O117">
-        <v>661.268409090909</v>
+        <v>661.2686363636363</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>1.46</v>
       </c>
       <c r="O118">
-        <v>661.6565909090909</v>
+        <v>661.6568181818182</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1.91</v>
       </c>
       <c r="O119">
-        <v>661.8052272727273</v>
+        <v>661.8054545454545</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>2.89</v>
       </c>
       <c r="O120">
-        <v>662.1877272727272</v>
+        <v>662.1879545454545</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>2.07</v>
       </c>
       <c r="O121">
-        <v>662.6602272727273</v>
+        <v>662.6604545454545</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>2.04</v>
       </c>
       <c r="O122">
-        <v>663.1802272727273</v>
+        <v>663.1804545454545</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>3.3</v>
       </c>
       <c r="O123">
-        <v>663.3702272727272</v>
+        <v>663.3704545454545</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>2.6</v>
       </c>
       <c r="O124">
-        <v>664.0340909090909</v>
+        <v>664.0343181818181</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>1.4</v>
       </c>
       <c r="O125">
-        <v>664.6665909090909</v>
+        <v>664.6668181818181</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>2.09</v>
       </c>
       <c r="O126">
-        <v>665.2854545454546</v>
+        <v>665.2856818181818</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>2.46</v>
       </c>
       <c r="O127">
-        <v>666.1936363636363</v>
+        <v>666.1938636363636</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>2.34</v>
       </c>
       <c r="O128">
-        <v>667.0206818181819</v>
+        <v>667.0209090909092</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>2.54</v>
       </c>
       <c r="O129">
-        <v>667.5247727272728</v>
+        <v>667.525</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>2.68</v>
       </c>
       <c r="O130">
-        <v>667.6261363636363</v>
+        <v>667.6263636363636</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -7102,7 +7102,7 @@
         <v>3.62</v>
       </c>
       <c r="O131">
-        <v>667.6631818181818</v>
+        <v>667.6634090909091</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>1.73</v>
       </c>
       <c r="O132">
-        <v>667.8195454545455</v>
+        <v>667.8197727272727</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>2.12</v>
       </c>
       <c r="O133">
-        <v>667.7913636363636</v>
+        <v>667.7915909090909</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>1.73</v>
       </c>
       <c r="O134">
-        <v>667.7302272727273</v>
+        <v>667.7304545454546</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>1.22</v>
       </c>
       <c r="O135">
-        <v>667.5411363636363</v>
+        <v>667.5413636363637</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>1.36</v>
       </c>
       <c r="O136">
-        <v>667.6213636363635</v>
+        <v>667.6215909090909</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>2.41</v>
       </c>
       <c r="O137">
-        <v>668.2145454545454</v>
+        <v>668.2147727272727</v>
       </c>
       <c r="P137">
         <v>1</v>
@@ -7452,7 +7452,7 @@
         <v>1.14</v>
       </c>
       <c r="O138">
-        <v>668.5288636363637</v>
+        <v>668.5290909090909</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>1.58</v>
       </c>
       <c r="O139">
-        <v>669.0434090909091</v>
+        <v>669.0436363636363</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1.97</v>
       </c>
       <c r="O140">
-        <v>669.5772727272727</v>
+        <v>669.5775</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.94</v>
       </c>
       <c r="O141">
-        <v>670.0765909090909</v>
+        <v>670.0768181818182</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>2.61</v>
       </c>
       <c r="O142">
-        <v>670.9234090909091</v>
+        <v>670.9236363636363</v>
       </c>
       <c r="P142">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>2.98</v>
       </c>
       <c r="O143">
-        <v>671.5015909090909</v>
+        <v>671.5018181818182</v>
       </c>
       <c r="P143">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>2.77</v>
       </c>
       <c r="O144">
-        <v>672.1154545454546</v>
+        <v>672.1156818181818</v>
       </c>
       <c r="P144">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>2.42</v>
       </c>
       <c r="O145">
-        <v>672.7225</v>
+        <v>672.7227272727273</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>2.1</v>
       </c>
       <c r="O146">
-        <v>673.2543181818181</v>
+        <v>673.2545454545455</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>3.5</v>
       </c>
       <c r="O147">
-        <v>673.8747727272727</v>
+        <v>673.875</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>2.17</v>
       </c>
       <c r="O148">
-        <v>673.9434090909091</v>
+        <v>673.9436363636364</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>4.45</v>
       </c>
       <c r="O149">
-        <v>674.8527272727273</v>
+        <v>674.8529545454546</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>4.43</v>
       </c>
       <c r="O150">
-        <v>676.2970454545455</v>
+        <v>676.2972727272727</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>5.62</v>
       </c>
       <c r="O151">
-        <v>676.8456818181818</v>
+        <v>676.8456818181819</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>1.43</v>
       </c>
       <c r="O154">
-        <v>678.9947727272728</v>
+        <v>678.9947727272727</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>4.4</v>
       </c>
       <c r="O155">
-        <v>680.2381818181818</v>
+        <v>680.2381818181819</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>1.67</v>
       </c>
       <c r="O161">
-        <v>687.9072727272728</v>
+        <v>687.9072727272727</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>1.68</v>
       </c>
       <c r="O164">
-        <v>690.3456818181819</v>
+        <v>690.3456818181818</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>2.52</v>
       </c>
       <c r="O166">
-        <v>691.2988636363635</v>
+        <v>691.2988636363636</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>1.8</v>
       </c>
       <c r="O173">
-        <v>693.753409090909</v>
+        <v>693.7534090909091</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>2.49</v>
       </c>
       <c r="O181">
-        <v>701.9788636363636</v>
+        <v>701.9788636363637</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>2.57</v>
       </c>
       <c r="O184">
-        <v>703.4631818181819</v>
+        <v>703.4631818181817</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>1.1</v>
       </c>
       <c r="O185">
-        <v>703.7895454545455</v>
+        <v>703.7895454545454</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>2.66</v>
       </c>
       <c r="O186">
-        <v>704.4995454545455</v>
+        <v>704.4995454545456</v>
       </c>
       <c r="P186">
         <v>1</v>
@@ -10052,7 +10052,7 @@
         <v>1.58</v>
       </c>
       <c r="O190">
-        <v>709.8159090909091</v>
+        <v>709.815909090909</v>
       </c>
       <c r="P190">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>3.16</v>
       </c>
       <c r="O193">
-        <v>712.9270454545455</v>
+        <v>712.9270454545454</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -10302,7 +10302,7 @@
         <v>1.3</v>
       </c>
       <c r="O195">
-        <v>714.7218181818182</v>
+        <v>714.7218181818181</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>1.69</v>
       </c>
       <c r="O196">
-        <v>716.0074999999999</v>
+        <v>716.0075000000001</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>2.51</v>
       </c>
       <c r="O197">
-        <v>716.7206818181819</v>
+        <v>716.7206818181818</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>2.04</v>
       </c>
       <c r="O199">
-        <v>717.9822727272727</v>
+        <v>717.9822727272726</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>1.68</v>
       </c>
       <c r="O200">
-        <v>718.1947727272727</v>
+        <v>718.1947727272728</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>2.8</v>
       </c>
       <c r="O201">
-        <v>718.8638636363637</v>
+        <v>718.8638636363636</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>1.28</v>
       </c>
       <c r="O202">
-        <v>719.6836363636363</v>
+        <v>719.6836363636364</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>2.01</v>
       </c>
       <c r="O205">
-        <v>723.9011363636363</v>
+        <v>723.9011363636364</v>
       </c>
       <c r="P205">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>2.38</v>
       </c>
       <c r="O206">
-        <v>725.9629545454546</v>
+        <v>725.9629545454545</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>1.28</v>
       </c>
       <c r="O210">
-        <v>737.069090909091</v>
+        <v>737.0690909090908</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>2.45</v>
       </c>
       <c r="O211">
-        <v>740.3234090909092</v>
+        <v>740.3234090909091</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -11352,7 +11352,7 @@
         <v>2.45</v>
       </c>
       <c r="O216">
-        <v>758.8438636363637</v>
+        <v>758.8438636363636</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>3.34</v>
       </c>
       <c r="O218">
-        <v>764.2295454545455</v>
+        <v>764.2295454545456</v>
       </c>
       <c r="P218">
         <v>0</v>
@@ -11502,7 +11502,7 @@
         <v>2.09</v>
       </c>
       <c r="O219">
-        <v>766.8638636363637</v>
+        <v>766.8638636363635</v>
       </c>
       <c r="P219">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>1.65</v>
       </c>
       <c r="O221">
-        <v>772.8556818181817</v>
+        <v>772.8556818181819</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>1.94</v>
       </c>
       <c r="O223">
-        <v>780.2952272727272</v>
+        <v>780.2952272727274</v>
       </c>
       <c r="P223">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>4.36</v>
       </c>
       <c r="O225">
-        <v>788.6106818181817</v>
+        <v>788.6106818181819</v>
       </c>
       <c r="P225">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>2.38</v>
       </c>
       <c r="O226">
-        <v>793.0670454545453</v>
+        <v>793.0670454545456</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -11959,7 +11959,7 @@
         <v>5.39</v>
       </c>
       <c r="O227">
-        <v>798.2450000000001</v>
+        <v>798.245</v>
       </c>
       <c r="P227">
         <v>0</v>
@@ -12280,7 +12280,7 @@
         <v>1.91</v>
       </c>
       <c r="O230">
-        <v>811.6340909090908</v>
+        <v>811.6340909090909</v>
       </c>
       <c r="P230">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>3.4</v>
       </c>
       <c r="O235">
-        <v>829.4924999999999</v>
+        <v>829.4925000000002</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>4.34</v>
       </c>
       <c r="O236">
-        <v>832.1181818181819</v>
+        <v>832.1181818181817</v>
       </c>
       <c r="P236">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>4.25</v>
       </c>
       <c r="O237">
-        <v>834.1886363636364</v>
+        <v>834.1886363636363</v>
       </c>
       <c r="P237">
         <v>1</v>
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <v>839.0749999999999</v>
+        <v>839.075</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -13828,7 +13828,7 @@
         <v>3.1</v>
       </c>
       <c r="O245">
-        <v>852.5261363636364</v>
+        <v>852.5261363636363</v>
       </c>
       <c r="P245">
         <v>0</v>
@@ -13935,7 +13935,7 @@
         <v>5.79</v>
       </c>
       <c r="O246">
-        <v>856.0045454545453</v>
+        <v>856.0045454545456</v>
       </c>
       <c r="P246">
         <v>0</v>
